--- a/AppleARKit-Blendshapes.xlsx
+++ b/AppleARKit-Blendshapes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28719"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A86BEDC-F434-45C4-82B4-9C42538C0870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF900AE-17FA-4A71-9486-70E4D92E4B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Left Blendshapes</t>
   </si>
@@ -102,125 +102,167 @@
     <t>eyeLookOutRight</t>
   </si>
   <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>eyeBlinkLeft</t>
+  </si>
+  <si>
+    <t>eyeBlinkRight</t>
+  </si>
+  <si>
+    <t>mouthFunnel</t>
+  </si>
+  <si>
+    <t>eyeSquintLeft</t>
+  </si>
+  <si>
+    <t>eyeSquintRight</t>
+  </si>
+  <si>
+    <t>mouthPucker</t>
+  </si>
+  <si>
+    <t>eyeWideLeft</t>
+  </si>
+  <si>
+    <t>eyeWideRight</t>
+  </si>
+  <si>
+    <t>mouthRollUpper</t>
+  </si>
+  <si>
+    <t>mouthRollLower</t>
+  </si>
+  <si>
+    <t>cheekSquintLeft</t>
+  </si>
+  <si>
+    <t>cheekSquintRight</t>
+  </si>
+  <si>
+    <t>mouthShrugUpper</t>
+  </si>
+  <si>
+    <t>noseSneerLeft</t>
+  </si>
+  <si>
+    <t>noseSneerRight</t>
+  </si>
+  <si>
+    <t>mouthShrugLower</t>
+  </si>
+  <si>
+    <t>mouthClose</t>
+  </si>
+  <si>
+    <t>mouthLeft</t>
+  </si>
+  <si>
+    <t>mouthRight</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>mouthSmileLeft</t>
+  </si>
+  <si>
+    <t>mouthSmileRight</t>
+  </si>
+  <si>
+    <t>tongueOut</t>
+  </si>
+  <si>
+    <t>mouthFrownLeft</t>
+  </si>
+  <si>
+    <t>mouthFrownRight</t>
+  </si>
+  <si>
+    <t>mouthDimpleLeft</t>
+  </si>
+  <si>
+    <t>mouthDimpleRight</t>
+  </si>
+  <si>
+    <t>mouthUpperUpLeft</t>
+  </si>
+  <si>
+    <t>mouthUpperUpRight</t>
+  </si>
+  <si>
+    <t>mouthLowerDownLeft</t>
+  </si>
+  <si>
+    <t>mouthLowerDownRight</t>
+  </si>
+  <si>
+    <t>mouthPressLeft</t>
+  </si>
+  <si>
+    <t>mouthPressRight</t>
+  </si>
+  <si>
+    <t>mouthStretchLeft</t>
+  </si>
+  <si>
+    <t>mouthStretchRight</t>
+  </si>
+  <si>
     <t>jawLeft</t>
   </si>
   <si>
-    <t>eyeBlinkLeft</t>
-  </si>
-  <si>
-    <t>eyeBlinkRight</t>
-  </si>
-  <si>
     <t>jawRight</t>
   </si>
   <si>
-    <t>eyeSquintLeft</t>
-  </si>
-  <si>
-    <t>eyeSquintRight</t>
-  </si>
-  <si>
-    <t>Mouth</t>
-  </si>
-  <si>
-    <t>eyeWideLeft</t>
-  </si>
-  <si>
-    <t>eyeWideRight</t>
-  </si>
-  <si>
-    <t>mouthFunnel</t>
-  </si>
-  <si>
-    <t>mouthPucker</t>
-  </si>
-  <si>
-    <t>cheekSquintLeft</t>
-  </si>
-  <si>
-    <t>cheekSquintRight</t>
-  </si>
-  <si>
-    <t>mouthRollUpper</t>
-  </si>
-  <si>
-    <t>noseSneerLeft</t>
-  </si>
-  <si>
-    <t>noseSneerRight</t>
-  </si>
-  <si>
-    <t>mouthRollLower</t>
-  </si>
-  <si>
-    <t>mouthShrugUpper</t>
-  </si>
-  <si>
-    <t>mouthLeft</t>
-  </si>
-  <si>
-    <t>mouthRight</t>
-  </si>
-  <si>
-    <t>mouthShrugLower</t>
-  </si>
-  <si>
-    <t>mouthSmileLeft</t>
-  </si>
-  <si>
-    <t>mouthSmileRight</t>
-  </si>
-  <si>
-    <t>mouthClose</t>
-  </si>
-  <si>
-    <t>mouthFrownLeft</t>
-  </si>
-  <si>
-    <t>mouthFrownRight</t>
-  </si>
-  <si>
-    <t>Tongue</t>
-  </si>
-  <si>
-    <t>mouthDimpleLeft</t>
-  </si>
-  <si>
-    <t>mouthDimpleRight</t>
-  </si>
-  <si>
-    <t>tongueOut</t>
-  </si>
-  <si>
-    <t>mouthUpperUpLeft</t>
-  </si>
-  <si>
-    <t>mouthUpperUpRight</t>
-  </si>
-  <si>
-    <t>mouthLowerDownLeft</t>
-  </si>
-  <si>
-    <t>mouthLowerDownRight</t>
-  </si>
-  <si>
-    <t>mouthPressLeft</t>
-  </si>
-  <si>
-    <t>mouthPressRight</t>
-  </si>
-  <si>
-    <t>mouthStretchLeft</t>
-  </si>
-  <si>
-    <t>mouthStretchRight</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blendshapes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remaining:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Blendshapes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>done:</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +296,29 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +337,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DFF5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -298,11 +373,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,12 +416,29 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3DFF5A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -674,16 +784,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
@@ -814,11 +924,8 @@
       <c r="C9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -848,8 +955,11 @@
       <c r="C11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="E11" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
@@ -919,10 +1029,10 @@
     </row>
     <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>40</v>
@@ -941,11 +1051,8 @@
       <c r="C17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E17" s="5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
@@ -975,33 +1082,24 @@
       <c r="C19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="b">
         <v>0</v>
@@ -1009,10 +1107,10 @@
     </row>
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5" t="b">
         <v>0</v>
@@ -1020,10 +1118,10 @@
     </row>
     <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="5" t="b">
         <v>0</v>
@@ -1031,12 +1129,63 @@
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="5" t="b">
+      <c r="C26" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="7">
+        <f>COUNTIF(C1:C26, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="7">
+        <f>COUNTIF(E1:E26, FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="B29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9">
+        <f>COUNTIF(C1:C26, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="9">
+        <f>COUNTIF(E1:E26, TRUE)</f>
         <v>0</v>
       </c>
     </row>
